--- a/trunk/src/test/java/User.xlsx
+++ b/trunk/src/test/java/User.xlsx
@@ -418,7 +418,7 @@
         <v>20.0</v>
       </c>
       <c r="C3" t="n" s="15">
-        <v>41723.38475996528</v>
+        <v>41725.88651672454</v>
       </c>
       <c r="D3" t="n" s="12">
         <v>90.0</v>
@@ -435,7 +435,7 @@
         <v>35.0</v>
       </c>
       <c r="C4" t="n" s="22">
-        <v>41623.38475996528</v>
+        <v>41625.886516736115</v>
       </c>
       <c r="D4" t="n" s="19">
         <v>100.0</v>
@@ -452,7 +452,7 @@
         <v>32.0</v>
       </c>
       <c r="C5" t="n" s="29">
-        <v>40723.38476006944</v>
+        <v>40725.8865168287</v>
       </c>
       <c r="D5" t="n" s="26">
         <v>97.0</v>

--- a/trunk/src/test/java/User.xlsx
+++ b/trunk/src/test/java/User.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+  <si>
+    <t>年龄</t>
+  </si>
   <si>
     <t/>
   </si>
@@ -20,19 +23,19 @@
     <t>成绩</t>
   </si>
   <si>
+    <t>英语</t>
+  </si>
+  <si>
     <t>数学</t>
   </si>
   <si>
-    <t>英语</t>
+    <t>姓名</t>
   </si>
   <si>
     <t>生日</t>
   </si>
   <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>姓名</t>
+    <t>--</t>
   </si>
   <si>
     <t>李四</t>
@@ -51,7 +54,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="yyyy-MM-dd HH:mm:ss"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="58">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -118,6 +121,126 @@
       <sz val="12.0"/>
       <color indexed="8"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -262,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
@@ -294,29 +417,29 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -327,7 +450,7 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
@@ -345,16 +468,94 @@
     <xf numFmtId="0" fontId="27" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="165" fontId="28" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="41" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="54" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -374,99 +575,165 @@
     <col min="3" max="3" width="10.0" customWidth="true"/>
     <col min="4" max="4" width="10.0" customWidth="true"/>
     <col min="5" max="5" width="10.0" customWidth="true"/>
+    <col min="6" max="6" width="10.0" customWidth="true"/>
+    <col min="7" max="7" width="10.0" customWidth="true"/>
+    <col min="8" max="8" width="10.0" customWidth="true"/>
+    <col min="9" max="9" width="10.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.0" customHeight="true">
       <c r="A1" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="5">
-        <v>0</v>
+      <c r="H1" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s" s="9">
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="20.0" customHeight="true">
-      <c r="A2" t="s" s="6">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s" s="10">
+      <c r="A2" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="12">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="13">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s" s="14">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s" s="15">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s" s="16">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s" s="17">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
-      <c r="A3" t="s" s="17">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n" s="16">
+      <c r="A3" t="s" s="23">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n" s="19">
         <v>20.0</v>
       </c>
-      <c r="C3" t="n" s="15">
-        <v>41725.88651672454</v>
-      </c>
-      <c r="D3" t="n" s="12">
-        <v>90.0</v>
-      </c>
-      <c r="E3" t="n" s="13">
-        <v>80.0</v>
+      <c r="E3" t="n" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="F3" t="n" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="G3" t="n" s="28">
+        <v>41726.938563090276</v>
+      </c>
+      <c r="H3" t="n" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="I3" t="n" s="26">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
-      <c r="A4" t="s" s="24">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n" s="23">
+      <c r="A4" t="s" s="36">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n" s="32">
         <v>35.0</v>
       </c>
-      <c r="C4" t="n" s="22">
-        <v>41625.886516736115</v>
-      </c>
-      <c r="D4" t="n" s="19">
-        <v>100.0</v>
-      </c>
-      <c r="E4" t="n" s="20">
-        <v>99.0</v>
+      <c r="E4" t="n" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="F4" t="n" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="G4" t="n" s="41">
+        <v>41626.938563090276</v>
+      </c>
+      <c r="H4" t="n" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="I4" t="n" s="39">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
-      <c r="A5" t="s" s="31">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n" s="30">
+      <c r="A5" t="s" s="49">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="n" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n" s="45">
         <v>32.0</v>
       </c>
-      <c r="C5" t="n" s="29">
-        <v>40725.8865168287</v>
-      </c>
-      <c r="D5" t="n" s="26">
-        <v>97.0</v>
-      </c>
-      <c r="E5" t="n" s="27">
-        <v>99.0</v>
+      <c r="E5" t="n" s="57">
+        <v>2.0</v>
+      </c>
+      <c r="F5" t="n" s="56">
+        <v>2.0</v>
+      </c>
+      <c r="G5" t="n" s="54">
+        <v>40726.93856318287</v>
+      </c>
+      <c r="H5" t="n" s="51">
+        <v>3.0</v>
+      </c>
+      <c r="I5" t="n" s="52">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/trunk/src/test/java/User.xlsx
+++ b/trunk/src/test/java/User.xlsx
@@ -12,39 +12,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>成绩</t>
+  </si>
+  <si>
+    <t>详情</t>
+  </si>
+  <si>
+    <t>课时</t>
+  </si>
+  <si>
+    <t>老师</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
   <si>
     <t>年龄</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>成绩</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>生日</t>
-  </si>
-  <si>
-    <t>--</t>
+    <t>AAA</t>
   </si>
   <si>
     <t>李四</t>
   </si>
   <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>cccc</t>
+  </si>
+  <si>
     <t>小三</t>
   </si>
   <si>
+    <t>dddd</t>
+  </si>
+  <si>
+    <t>eeee</t>
+  </si>
+  <si>
     <t>小雨</t>
+  </si>
+  <si>
+    <t>ffff</t>
   </si>
 </sst>
 </file>
@@ -54,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="yyyy-MM-dd HH:mm:ss"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="82">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -169,6 +193,132 @@
       <sz val="12.0"/>
       <color indexed="8"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -385,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
@@ -441,50 +591,50 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -546,7 +696,7 @@
     <xf numFmtId="0" fontId="53" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="165" fontId="54" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
@@ -555,7 +705,79 @@
     <xf numFmtId="0" fontId="56" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="165" fontId="57" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="73" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -566,7 +788,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" tabSelected="true">
+      <pane xSplit="11.0" ySplit="3.0" state="frozen" topLeftCell="L4" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
@@ -579,161 +804,233 @@
     <col min="7" max="7" width="10.0" customWidth="true"/>
     <col min="8" max="8" width="10.0" customWidth="true"/>
     <col min="9" max="9" width="10.0" customWidth="true"/>
+    <col min="10" max="10" width="10.0" customWidth="true"/>
+    <col min="11" max="11" width="10.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.0" customHeight="true">
       <c r="A1" t="s" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s" s="4">
         <v>0</v>
       </c>
       <c r="E1" t="s" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1" t="s" s="9">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s" s="10">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="20.0" customHeight="true">
-      <c r="A2" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="12">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s" s="14">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s" s="15">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s" s="16">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s" s="17">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s" s="18">
-        <v>3</v>
+      <c r="A2" t="s" s="12">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="13">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="14">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="15">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s" s="16">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s" s="17">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s" s="18">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s" s="20">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s" s="21">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s" s="22">
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
       <c r="A3" t="s" s="23">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="n" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="D3" t="n" s="19">
-        <v>20.0</v>
-      </c>
-      <c r="E3" t="n" s="31">
-        <v>2.0</v>
-      </c>
-      <c r="F3" t="n" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="G3" t="n" s="28">
-        <v>41726.938563090276</v>
-      </c>
-      <c r="H3" t="n" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="I3" t="n" s="26">
-        <v>3.0</v>
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="24">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s" s="25">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s" s="26">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s" s="27">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s" s="28">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s" s="29">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s" s="30">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s" s="31">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s" s="32">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
-      <c r="A4" t="s" s="36">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n" s="35">
+      <c r="A4" t="s" s="42">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n" s="39">
         <v>1.0</v>
       </c>
-      <c r="C4" t="n" s="34">
+      <c r="C4" t="n" s="38">
         <v>1.0</v>
       </c>
-      <c r="D4" t="n" s="32">
-        <v>35.0</v>
-      </c>
-      <c r="E4" t="n" s="44">
+      <c r="D4" t="n" s="36">
+        <v>11.0</v>
+      </c>
+      <c r="E4" t="s" s="37">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n" s="49">
+        <v>20.0</v>
+      </c>
+      <c r="G4" t="n" s="45">
         <v>2.0</v>
       </c>
-      <c r="F4" t="n" s="43">
+      <c r="H4" t="n" s="44">
         <v>2.0</v>
       </c>
-      <c r="G4" t="n" s="41">
-        <v>41626.938563090276</v>
-      </c>
-      <c r="H4" t="n" s="38">
-        <v>3.0</v>
-      </c>
-      <c r="I4" t="n" s="39">
-        <v>3.0</v>
+      <c r="I4" t="n" s="48">
+        <v>222.0</v>
+      </c>
+      <c r="J4" t="s" s="47">
+        <v>12</v>
+      </c>
+      <c r="K4" t="n" s="41">
+        <v>41727.96525501157</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
-      <c r="A5" t="s" s="49">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n" s="48">
+      <c r="A5" t="s" s="58">
+        <v>14</v>
+      </c>
+      <c r="B5" t="n" s="55">
         <v>1.0</v>
       </c>
-      <c r="C5" t="n" s="47">
+      <c r="C5" t="n" s="54">
         <v>1.0</v>
       </c>
-      <c r="D5" t="n" s="45">
+      <c r="D5" t="n" s="52">
+        <v>33333.0</v>
+      </c>
+      <c r="E5" t="s" s="53">
+        <v>13</v>
+      </c>
+      <c r="F5" t="n" s="65">
+        <v>35.0</v>
+      </c>
+      <c r="G5" t="n" s="61">
+        <v>2.0</v>
+      </c>
+      <c r="H5" t="n" s="60">
+        <v>2.0</v>
+      </c>
+      <c r="I5" t="n" s="64">
+        <v>4444.0</v>
+      </c>
+      <c r="J5" t="s" s="63">
+        <v>15</v>
+      </c>
+      <c r="K5" t="n" s="57">
+        <v>41627.96525502315</v>
+      </c>
+    </row>
+    <row r="6" ht="20.0" customHeight="true">
+      <c r="A6" t="s" s="74">
+        <v>17</v>
+      </c>
+      <c r="B6" t="n" s="71">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="70">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n" s="68">
+        <v>5555.0</v>
+      </c>
+      <c r="E6" t="s" s="69">
+        <v>16</v>
+      </c>
+      <c r="F6" t="n" s="81">
         <v>32.0</v>
       </c>
-      <c r="E5" t="n" s="57">
+      <c r="G6" t="n" s="77">
         <v>2.0</v>
       </c>
-      <c r="F5" t="n" s="56">
+      <c r="H6" t="n" s="76">
         <v>2.0</v>
       </c>
-      <c r="G5" t="n" s="54">
-        <v>40726.93856318287</v>
-      </c>
-      <c r="H5" t="n" s="51">
-        <v>3.0</v>
-      </c>
-      <c r="I5" t="n" s="52">
-        <v>3.0</v>
+      <c r="I6" t="n" s="80">
+        <v>66666.0</v>
+      </c>
+      <c r="J6" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="K6" t="n" s="73">
+        <v>40727.96525511574</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/trunk/src/test/java/User.xlsx
+++ b/trunk/src/test/java/User.xlsx
@@ -945,7 +945,7 @@
         <v>12</v>
       </c>
       <c r="K4" t="n" s="41">
-        <v>41727.96525501157</v>
+        <v>41728.001729386575</v>
       </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
@@ -980,7 +980,7 @@
         <v>15</v>
       </c>
       <c r="K5" t="n" s="57">
-        <v>41627.96525502315</v>
+        <v>41628.00172939815</v>
       </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
@@ -1015,7 +1015,7 @@
         <v>18</v>
       </c>
       <c r="K6" t="n" s="73">
-        <v>40727.96525511574</v>
+        <v>40728.00172954861</v>
       </c>
     </row>
   </sheetData>
